--- a/data/trans_dic/P3A$otraSIcobra-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006875955045309017</v>
+        <v>0.007185948737976795</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003247318276427119</v>
+        <v>0.003267441490309233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008675407218853839</v>
+        <v>0.008916260658684044</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06480802364070935</v>
+        <v>0.07110736655739772</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03302363176472311</v>
+        <v>0.03183348007884778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04425789472821378</v>
+        <v>0.04385269224998924</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.007962634816420729</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.004082383156178475</v>
+        <v>0.004082383156178476</v>
       </c>
     </row>
     <row r="8">
@@ -637,10 +637,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.002133359270119474</v>
+        <v>0.002146656094382527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001094657534787775</v>
+        <v>0.001090035548366022</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.02400107572563133</v>
+        <v>0.02293774194337997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01191979035960062</v>
+        <v>0.01068601753939358</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005497508492300052</v>
+        <v>0.00614449956007897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004904727688183252</v>
+        <v>0.004949079456362577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007576985942224441</v>
+        <v>0.007903298525931335</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02821951581801302</v>
+        <v>0.0272266432614701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01970806997358981</v>
+        <v>0.01918042129831008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01987459664488131</v>
+        <v>0.0202690613262517</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01975091556214745</v>
+        <v>0.01975091556214744</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02352902029779932</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02168676287386006</v>
+        <v>0.02168676287386007</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009604212540875305</v>
+        <v>0.009917313066652795</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01579322479940398</v>
+        <v>0.015562471292316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01516275214710591</v>
+        <v>0.01578803500575766</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03330856641365507</v>
+        <v>0.03343714236197625</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03402167823874044</v>
+        <v>0.03393436598922201</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02959141069955135</v>
+        <v>0.03075012146009227</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01710757083145396</v>
+        <v>0.01710757083145395</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02093671981403427</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009224889449764332</v>
+        <v>0.00869641111811187</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01334537317829693</v>
+        <v>0.01268671355484707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01297290659593429</v>
+        <v>0.01315598082974151</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0301135076099411</v>
+        <v>0.03040451337031464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03111790284993848</v>
+        <v>0.03077511911282961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02735507951540979</v>
+        <v>0.02626192993886958</v>
       </c>
     </row>
     <row r="19">
@@ -838,10 +838,10 @@
         <v>0.05379768452629979</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.05571487218286028</v>
+        <v>0.05571487218286027</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.05479329153345657</v>
+        <v>0.05479329153345658</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03778821202129862</v>
+        <v>0.03698499980220887</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04094103305316708</v>
+        <v>0.04199039409219376</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04332109532952556</v>
+        <v>0.04383294648398069</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07868456249957384</v>
+        <v>0.07364052164809237</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07482831493134555</v>
+        <v>0.07354553082528308</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06802427856137493</v>
+        <v>0.06873885356896949</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08960639495007194</v>
+        <v>0.09354624588754973</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1229059381455452</v>
+        <v>0.121334273435412</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1185335508286708</v>
+        <v>0.1190509064621299</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1540689262415958</v>
+        <v>0.1592608364300907</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1729831465124103</v>
+        <v>0.175191597715049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1565476549957905</v>
+        <v>0.1574906148707835</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0241882333306379</v>
+        <v>0.02416439059867408</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03234714416498347</v>
+        <v>0.0315665311109557</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0298497194843199</v>
+        <v>0.02972976473708566</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03619139624328958</v>
+        <v>0.0362026724435433</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04288759910046998</v>
+        <v>0.04258775700192215</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03729726621372113</v>
+        <v>0.03723553474181183</v>
       </c>
     </row>
     <row r="28">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2804</v>
+        <v>2930</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6683</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="7">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26428</v>
+        <v>28997</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11971</v>
+        <v>11540</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34092</v>
+        <v>33780</v>
       </c>
     </row>
     <row r="8">
@@ -1203,10 +1203,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="11">
@@ -1218,10 +1218,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>12042</v>
+        <v>11509</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11665</v>
+        <v>10458</v>
       </c>
     </row>
     <row r="12">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3413</v>
+        <v>3815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3057</v>
+        <v>3084</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9426</v>
+        <v>9832</v>
       </c>
     </row>
     <row r="15">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17520</v>
+        <v>16903</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12282</v>
+        <v>11953</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24725</v>
+        <v>25215</v>
       </c>
     </row>
     <row r="16">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6729</v>
+        <v>6948</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11627</v>
+        <v>11457</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21786</v>
+        <v>22685</v>
       </c>
     </row>
     <row r="19">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23337</v>
+        <v>23427</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25047</v>
+        <v>24983</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42518</v>
+        <v>44183</v>
       </c>
     </row>
     <row r="20">
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5621</v>
+        <v>5299</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8125</v>
+        <v>7724</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>15804</v>
+        <v>16027</v>
       </c>
     </row>
     <row r="23">
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18350</v>
+        <v>18527</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18946</v>
+        <v>18738</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33324</v>
+        <v>31992</v>
       </c>
     </row>
     <row r="24">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15341</v>
+        <v>15015</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>17957</v>
+        <v>18417</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>36588</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="27">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31945</v>
+        <v>29897</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32820</v>
+        <v>32257</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>57452</v>
+        <v>58056</v>
       </c>
     </row>
     <row r="28">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>27796</v>
+        <v>29018</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>57103</v>
+        <v>56373</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>91841</v>
+        <v>92241</v>
       </c>
     </row>
     <row r="31">
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>47792</v>
+        <v>49402</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>80370</v>
+        <v>81396</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>121294</v>
+        <v>122025</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>85425</v>
+        <v>85341</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>120840</v>
+        <v>117923</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>216929</v>
+        <v>216057</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>127816</v>
+        <v>127856</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>160216</v>
+        <v>159095</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>271053</v>
+        <v>270605</v>
       </c>
     </row>
     <row r="36">
